--- a/gold_profilev1.xlsx
+++ b/gold_profilev1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agrawani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agrawani\gitfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Rules Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Questions Data'!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Questions Data'!$A$1:$I$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rules Data'!$A$1:$H$811</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="348">
   <si>
     <t>id</t>
   </si>
@@ -1015,9 +1015,6 @@
   </si>
   <si>
     <t>Low ( 10% or less)\Medium ( 10-25 %)\High ( 25% or more)","position":4}</t>
-  </si>
-  <si>
-    <t>Low ( 10K or less)\Medium ( 10-15 K)\High ( 15 K or more)","position":4}</t>
   </si>
   <si>
     <t>Apache\IPlanet\IIS\IHS\Other\None","position":7}</t>
@@ -1435,11 +1432,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>276</v>
@@ -1700,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>243</v>
@@ -1746,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>244</v>
@@ -1769,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>278</v>
@@ -1792,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>279</v>
@@ -1815,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>245</v>
@@ -1861,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>246</v>
@@ -1907,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>248</v>
@@ -1950,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>250</v>
@@ -1973,7 +1970,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>252</v>
@@ -2016,7 +2013,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>281</v>
@@ -2062,7 +2059,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>282</v>
@@ -2085,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>283</v>
@@ -2214,7 +2211,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>287</v>
@@ -2280,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>260</v>
@@ -2303,7 +2300,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>260</v>
@@ -2415,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>261</v>
@@ -2438,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>261</v>
@@ -2547,7 +2544,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>263</v>
@@ -2570,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>263</v>
@@ -2751,18 +2748,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>291</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>264</v>
@@ -2796,22 +2796,19 @@
     </row>
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -2819,10 +2816,10 @@
     </row>
     <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
@@ -2831,7 +2828,7 @@
         <v>290</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -2839,13 +2836,16 @@
     </row>
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>290</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -2882,22 +2882,19 @@
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -2905,10 +2902,10 @@
     </row>
     <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -2925,13 +2922,16 @@
     </row>
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>265</v>
@@ -2943,55 +2943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:E70"/>
+  <autoFilter ref="A1:E68"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
